--- a/biology/Zoologie/Bahinia/Bahinia.xlsx
+++ b/biology/Zoologie/Bahinia/Bahinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bahinia est un genre éteint de primates anthropoïdes ayant vécu il y a environ 40 à 30 Ma (millions d'années).
-L'espèce Bahinia pondaungensis a été découverte en 1999 dans le Pondaung (Myanmar) par le paléontologue français Jean-Jacques Jaeger. Elle est plus archaïque que ses contemporains Pondaungidae : sa denture évoque plutôt un fossile de –57 Ma. Elle appartiendrait à la famille des Éosimiidés, l'une des plus anciennes du clade des Anthropoidea. L'origine de ce clade conduisant aux humains se situerait ainsi en Asie et pourrait remonter à environ –55 Ma. « L'origine et l'évolution de l'homme ne peuvent plus être considérées comme exclusivement africaines [...] Cela signifie que nos lointains ancêtres sont arrivés en Afrique il y a au moins 39 millions d'années, très probablement d'Asie », selon le professeur Jaeger[1],[2].
-Une nouvelle espèce, Bahinia banyueae, a été découverte dans l'Oligocène inférieur de la province du Yunan (Chine) en 2016[3].
+L'espèce Bahinia pondaungensis a été découverte en 1999 dans le Pondaung (Myanmar) par le paléontologue français Jean-Jacques Jaeger. Elle est plus archaïque que ses contemporains Pondaungidae : sa denture évoque plutôt un fossile de –57 Ma. Elle appartiendrait à la famille des Éosimiidés, l'une des plus anciennes du clade des Anthropoidea. L'origine de ce clade conduisant aux humains se situerait ainsi en Asie et pourrait remonter à environ –55 Ma. « L'origine et l'évolution de l'homme ne peuvent plus être considérées comme exclusivement africaines [...] Cela signifie que nos lointains ancêtres sont arrivés en Afrique il y a au moins 39 millions d'années, très probablement d'Asie », selon le professeur Jaeger,.
+Une nouvelle espèce, Bahinia banyueae, a été découverte dans l'Oligocène inférieur de la province du Yunan (Chine) en 2016.
 </t>
         </is>
       </c>
